--- a/Docs/Requirements/importFromExcelTemplate/老师.xlsx
+++ b/Docs/Requirements/importFromExcelTemplate/老师.xlsx
@@ -1,24 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20910"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="100" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="125725" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="E1" authorId="0">
@@ -78,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
   <si>
     <t>性别</t>
   </si>
@@ -122,9 +127,6 @@
     <t>等级</t>
   </si>
   <si>
-    <t>校区</t>
-  </si>
-  <si>
     <t>毕业院校</t>
   </si>
   <si>
@@ -134,9 +136,6 @@
     <t>学校</t>
   </si>
   <si>
-    <t>教育集团</t>
-  </si>
-  <si>
     <t>北京天极中学</t>
   </si>
   <si>
@@ -164,9 +163,6 @@
     <t>清华大学</t>
   </si>
   <si>
-    <t>天极教育集团</t>
-  </si>
-  <si>
     <t>xmliu@163.com</t>
   </si>
   <si>
@@ -174,9 +170,6 @@
   </si>
   <si>
     <t>0101237756</t>
-  </si>
-  <si>
-    <t>天极海淀分校</t>
   </si>
   <si>
     <t>经验</t>
@@ -206,19 +199,19 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -235,7 +228,7 @@
       <b/>
       <sz val="9"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -286,25 +279,25 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -350,8 +343,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -642,27 +635,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="T1" sqref="T1:T1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.6640625" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.42578125" customWidth="1"/>
-    <col min="11" max="11" width="10.5703125" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="19" max="21" width="14" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" customWidth="1"/>
+    <col min="11" max="11" width="10.5" customWidth="1"/>
+    <col min="12" max="12" width="12.1640625" customWidth="1"/>
+    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -704,72 +697,66 @@
         <v>12</v>
       </c>
       <c r="O1" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P1" s="3" t="s">
         <v>13</v>
       </c>
       <c r="Q1" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="R1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="T1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="4" t="s">
-        <v>18</v>
+      <c r="S1" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>11223344</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="H2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
       </c>
       <c r="I2" s="7">
         <v>123456766</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="K2">
         <v>11111</v>
       </c>
       <c r="L2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
         <v>25</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
       </c>
       <c r="P2">
         <v>5</v>
@@ -778,63 +765,57 @@
         <v>6</v>
       </c>
       <c r="R2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="S2" t="s">
-        <v>32</v>
-      </c>
-      <c r="T2" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>1122346</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C3">
         <v>123456</v>
       </c>
       <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="H3" t="s">
         <v>21</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="7">
         <v>123456767</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K3">
         <v>11112</v>
       </c>
       <c r="L3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="N3" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" t="s">
         <v>25</v>
-      </c>
-      <c r="O3" t="s">
-        <v>27</v>
       </c>
       <c r="P3">
         <v>5</v>
@@ -843,16 +824,10 @@
         <v>6</v>
       </c>
       <c r="R3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="S3" t="s">
-        <v>32</v>
-      </c>
-      <c r="T3" t="s">
-        <v>19</v>
-      </c>
-      <c r="U3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -862,35 +837,50 @@
     <hyperlink ref="F3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId3"/>
-  <legacyDrawing r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <legacyDrawing r:id="rId3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Docs/Requirements/importFromExcelTemplate/老师.xlsx
+++ b/Docs/Requirements/importFromExcelTemplate/老师.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="35">
   <si>
     <t>性别</t>
   </si>
@@ -121,9 +121,6 @@
     <t>座机</t>
   </si>
   <si>
-    <t>班级</t>
-  </si>
-  <si>
     <t>等级</t>
   </si>
   <si>
@@ -152,9 +149,6 @@
   </si>
   <si>
     <t>/pic/xiaoming.jpg</t>
-  </si>
-  <si>
-    <t>三年2班</t>
   </si>
   <si>
     <t>黄晓明</t>
@@ -636,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1:T1048576"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1:N1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -650,12 +644,12 @@
     <col min="10" max="10" width="19.5" customWidth="1"/>
     <col min="11" max="11" width="10.5" customWidth="1"/>
     <col min="12" max="12" width="12.1640625" customWidth="1"/>
-    <col min="19" max="19" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -694,140 +688,131 @@
         <v>11</v>
       </c>
       <c r="N1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="P1" s="3" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="Q1" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>16</v>
+        <v>31</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:18">
       <c r="A2">
         <v>11223344</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C2">
         <v>123456</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
       <c r="I2" s="7">
         <v>123456766</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2">
         <v>11111</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
       </c>
-      <c r="O2" t="s">
-        <v>25</v>
+      <c r="O2">
+        <v>5</v>
       </c>
       <c r="P2">
-        <v>5</v>
-      </c>
-      <c r="Q2">
         <v>6</v>
       </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
       <c r="R2" t="s">
-        <v>34</v>
-      </c>
-      <c r="S2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:18">
       <c r="A3">
         <v>1122346</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C3">
         <v>123456</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>21</v>
       </c>
       <c r="I3" s="7">
         <v>123456767</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="K3">
         <v>11112</v>
       </c>
       <c r="L3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s">
         <v>23</v>
       </c>
-      <c r="O3" t="s">
-        <v>25</v>
+      <c r="O3">
+        <v>5</v>
       </c>
       <c r="P3">
-        <v>5</v>
-      </c>
-      <c r="Q3">
         <v>6</v>
       </c>
+      <c r="Q3" t="s">
+        <v>33</v>
+      </c>
       <c r="R3" t="s">
-        <v>35</v>
-      </c>
-      <c r="S3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
